--- a/12.11.21_MTS_MISIS/concentrations.xlsx
+++ b/12.11.21_MTS_MISIS/concentrations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Drug</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>DMSO</t>
+  </si>
+  <si>
+    <t>N_dilution</t>
+  </si>
+  <si>
+    <t>N_replicates</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,9 +398,11 @@
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +415,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -421,8 +435,14 @@
       <c r="D2">
         <v>3</v>
       </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -435,8 +455,14 @@
       <c r="D3">
         <v>3</v>
       </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -449,8 +475,14 @@
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -463,8 +495,14 @@
       <c r="D5">
         <v>3</v>
       </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -476,6 +514,12 @@
       </c>
       <c r="D6">
         <v>3</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/12.11.21_MTS_MISIS/concentrations.xlsx
+++ b/12.11.21_MTS_MISIS/concentrations.xlsx
@@ -36,9 +36,6 @@
     <t>L173</t>
   </si>
   <si>
-    <t>L173*HCl</t>
-  </si>
-  <si>
     <t>fluconazol</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>N_replicates</t>
+  </si>
+  <si>
+    <t>L173_HCl</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -464,7 +464,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>20</v>
